--- a/table6.xlsx
+++ b/table6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/codeup-data-science/texas-energy-consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3370F8E-7AFE-CF42-A82E-98FD184ECE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39860273-05B7-F548-BAE4-D1C25F918F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32620" yWindow="7060" windowWidth="27640" windowHeight="16940" xr2:uid="{98C0C81F-7912-154D-9797-0BE517C9719C}"/>
+    <workbookView xWindow="6060" yWindow="6940" windowWidth="27640" windowHeight="16940" xr2:uid="{98C0C81F-7912-154D-9797-0BE517C9719C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,45 +144,9 @@
     <t>Cherokee County Elec Coop Assn</t>
   </si>
   <si>
-    <t>City of Brenham - (TX)</t>
-  </si>
-  <si>
-    <t>City of Bryan - (TX)</t>
-  </si>
-  <si>
-    <t>City of College Station - (TX)</t>
-  </si>
-  <si>
-    <t>City of Denton - (TX)</t>
-  </si>
-  <si>
     <t>City of Floresville</t>
   </si>
   <si>
-    <t>City of Garland - (TX)</t>
-  </si>
-  <si>
-    <t>City of Georgetown - (TX)</t>
-  </si>
-  <si>
-    <t>City of Greenville - (TX)</t>
-  </si>
-  <si>
-    <t>City of Lubbock - (TX)</t>
-  </si>
-  <si>
-    <t>City of New Braunfels - (TX)</t>
-  </si>
-  <si>
-    <t>City of San Antonio - (TX)</t>
-  </si>
-  <si>
-    <t>City of San Marcos - (TX)</t>
-  </si>
-  <si>
-    <t>City of Seguin - (TX)</t>
-  </si>
-  <si>
     <t>Clearview Electric Inc.</t>
   </si>
   <si>
@@ -517,6 +481,42 @@
   </si>
   <si>
     <t>Young Energy, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Brenham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Bryan </t>
+  </si>
+  <si>
+    <t>City of College Station</t>
+  </si>
+  <si>
+    <t>City of Denton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Georgetown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Greenville </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Lubbock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of New Braunfels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of San Antonio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of San Marcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">City of Seguin </t>
+  </si>
+  <si>
+    <t>Garland</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0ACA7C-E12A-1942-9308-DD7EF2E106DD}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3">
         <v>297495</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D52" s="3">
         <v>410753</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>8</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>8</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>8</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>8</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>8</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>8</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>8</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>8</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>8</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>8</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>8</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>8</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>8</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>8</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>8</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>8</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>8</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>8</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>8</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>8</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>8</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>8</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>8</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -3467,13 +3467,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D111" s="3">
         <v>7255</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>8</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>8</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D117" s="3">
         <v>152519</v>
@@ -3628,13 +3628,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D118" s="3">
         <v>214908</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>8</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>8</v>
@@ -3720,13 +3720,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D122" s="3">
         <v>1401</v>
@@ -3743,13 +3743,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D123" s="3">
         <v>2775</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>8</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>8</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>8</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>8</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>8</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>8</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>8</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>8</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>8</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>8</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>8</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>8</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>8</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>8</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>8</v>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>8</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>8</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>8</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>8</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>8</v>
